--- a/enriched_jira_data_with_simulated.xlsx
+++ b/enriched_jira_data_with_simulated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajit\Downloads\jira_resource_management_app (7)\Resmon7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FC301-BC1B-4BE5-BA84-F8F390996C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="Resource Costs" sheetId="7" r:id="rId7"/>
     <sheet name="Technical Debt" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -470,12 +476,6 @@
     <t>v5.0</t>
   </si>
   <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>Snowflake</t>
-  </si>
-  <si>
     <t>PSSDP- 1130, PSSDP- 1154</t>
   </si>
   <si>
@@ -783,16 +783,22 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Proj1</t>
+  </si>
+  <si>
+    <t>Proj2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,13 +870,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -908,7 +922,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -942,6 +956,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -976,9 +991,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,17 +1167,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="27" width="9.140625" style="1"/>
+    <col min="12" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.1796875" style="1"/>
+    <col min="23" max="23" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1285,10 +1304,10 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="T2" s="1" t="b">
         <v>0</v>
@@ -1303,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1344,10 +1363,10 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
+        <v>253</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="T3" s="1" t="b">
         <v>0</v>
@@ -1362,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1406,13 +1425,13 @@
         <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="T4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z4" s="1">
         <v>3</v>
@@ -1421,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1465,10 +1484,10 @@
         <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T5" s="1" t="b">
         <v>0</v>
@@ -1483,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="R6" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T6" s="1" t="b">
         <v>0</v>
@@ -1536,7 +1555,7 @@
         <v>124</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W6" s="3">
         <v>45861</v>
@@ -1554,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>27</v>
@@ -1619,7 +1638,7 @@
         <v>123</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W7" s="3">
         <v>45746</v>
@@ -1637,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>64</v>
@@ -1702,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W8" s="3">
         <v>45753</v>
@@ -1720,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T9" s="1" t="b">
         <v>0</v>
@@ -1782,7 +1801,7 @@
         <v>123</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W9" s="3">
         <v>45745</v>
@@ -1800,7 +1819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1853,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="Z10" s="1">
         <v>5</v>
@@ -1868,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="R11" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>54</v>
@@ -1933,7 +1952,7 @@
         <v>123</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="W11" s="3">
         <v>45746</v>
@@ -1942,7 +1961,7 @@
         <v>131</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Z11" s="1">
         <v>2</v>
@@ -1951,7 +1970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2004,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T12" s="1" t="b">
         <v>0</v>
@@ -2019,7 +2038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2072,10 +2091,10 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T13" s="1" t="b">
         <v>0</v>
@@ -2084,7 +2103,7 @@
         <v>123</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W13" s="3">
         <v>45765</v>
@@ -2102,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2155,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>73</v>
@@ -2164,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z14" s="1">
         <v>2</v>
@@ -2173,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2226,16 +2245,16 @@
         <v>5</v>
       </c>
       <c r="R15" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z15" s="1">
         <v>1</v>
@@ -2244,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2297,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="R16" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T16" s="1" t="b">
         <v>0</v>
@@ -2312,7 +2331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2365,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T17" s="1" t="b">
         <v>0</v>
@@ -2374,7 +2393,7 @@
         <v>124</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W17" s="3">
         <v>45767</v>
@@ -2392,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2445,10 +2464,10 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T18" s="1" t="b">
         <v>0</v>
@@ -2463,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2516,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="R19" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>51</v>
@@ -2528,7 +2547,7 @@
         <v>124</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W19" s="3">
         <v>45759</v>
@@ -2537,7 +2556,7 @@
         <v>137</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z19" s="1">
         <v>3</v>
@@ -2546,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2599,16 +2618,16 @@
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Y20" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z20" s="1">
         <v>4</v>
@@ -2617,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2670,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="R21" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>57</v>
@@ -2688,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2741,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="R22" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T22" s="1" t="b">
         <v>1</v>
@@ -2753,7 +2772,7 @@
         <v>123</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W22" s="3">
         <v>45780</v>
@@ -2771,7 +2790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2824,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="R23" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T23" s="1" t="b">
         <v>0</v>
@@ -2839,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2892,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>65</v>
@@ -2910,7 +2929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2963,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T25" s="1" t="b">
         <v>0</v>
@@ -2972,7 +2991,7 @@
         <v>123</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W25" s="3">
         <v>45775</v>
@@ -2990,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3043,10 +3062,10 @@
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T26" s="1" t="b">
         <v>1</v>
@@ -3061,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3114,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="R27" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T27" s="1" t="b">
         <v>0</v>
@@ -3123,7 +3142,7 @@
         <v>122</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W27" s="3">
         <v>45774</v>
@@ -3141,7 +3160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3194,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="R28" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
@@ -3212,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3265,13 +3284,13 @@
         <v>5</v>
       </c>
       <c r="R29" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Y29" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Z29" s="1">
         <v>7</v>
@@ -3280,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>47</v>
@@ -3351,7 +3370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3404,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="R31" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T31" s="1" t="b">
         <v>0</v>
@@ -3419,7 +3438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3472,10 +3491,10 @@
         <v>5</v>
       </c>
       <c r="R32" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T32" s="1" t="b">
         <v>0</v>
@@ -3490,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3543,10 +3562,10 @@
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T33" s="1" t="b">
         <v>0</v>
@@ -3561,7 +3580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3614,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="R34" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>36</v>
@@ -3632,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3685,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="R35" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T35" s="1" t="b">
         <v>0</v>
@@ -3694,7 +3713,7 @@
         <v>125</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W35" s="3">
         <v>45789</v>
@@ -3703,7 +3722,7 @@
         <v>132</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Z35" s="1">
         <v>2</v>
@@ -3712,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3765,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="R36" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T36" s="1" t="b">
         <v>0</v>
@@ -3774,7 +3793,7 @@
         <v>122</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W36" s="3">
         <v>45788</v>
@@ -3792,7 +3811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3845,10 +3864,10 @@
         <v>3</v>
       </c>
       <c r="R37" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T37" s="1" t="b">
         <v>0</v>
@@ -3857,7 +3876,7 @@
         <v>123</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W37" s="3">
         <v>45787</v>
@@ -3875,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3928,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="R38" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T38" s="1" t="b">
         <v>0</v>
@@ -3937,7 +3956,7 @@
         <v>123</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W38" s="3">
         <v>45790</v>
@@ -3955,7 +3974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4008,13 +4027,13 @@
         <v>3</v>
       </c>
       <c r="R39" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="T39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Z39" s="1">
         <v>2</v>
@@ -4023,7 +4042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4076,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="R40" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="T40" s="1" t="b">
         <v>0</v>
@@ -4091,7 +4110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4144,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="R41" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="T41" s="1" t="b">
         <v>0</v>
@@ -4159,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4212,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="R42" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="T42" s="1" t="b">
         <v>0</v>
@@ -4221,7 +4240,7 @@
         <v>124</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W42" s="3">
         <v>45783</v>
@@ -4239,7 +4258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="T43" s="1" t="b">
         <v>1</v>
@@ -4307,7 +4326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -4360,10 +4379,10 @@
         <v>5</v>
       </c>
       <c r="R44" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T44" s="1" t="b">
         <v>0</v>
@@ -4378,7 +4397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4431,7 +4450,7 @@
         <v>3</v>
       </c>
       <c r="R45" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>32</v>
@@ -4449,7 +4468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4502,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="R46" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="T46" s="1" t="b">
         <v>1</v>
@@ -4517,7 +4536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4570,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="R47" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="T47" s="1" t="b">
         <v>0</v>
@@ -4585,7 +4604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -4638,10 +4657,10 @@
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T48" s="1" t="b">
         <v>0</v>
@@ -4662,48 +4681,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="3" max="6" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1">
         <v>0.83</v>
@@ -4712,12 +4731,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -4729,18 +4748,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" s="1">
         <v>1.2</v>
@@ -4749,18 +4768,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1">
         <v>0.93</v>
@@ -4769,12 +4788,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -4786,18 +4805,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1">
         <v>0.76</v>
@@ -4806,38 +4825,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F8" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1">
         <v>1.06</v>
@@ -4846,18 +4865,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1">
         <v>1.29</v>
@@ -4872,28 +4891,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4907,7 +4926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4921,7 +4940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4935,7 +4954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4949,7 +4968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4977,7 +4996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4991,7 +5010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5005,7 +5024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5019,7 +5038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5033,7 +5052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5047,7 +5066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5061,7 +5080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5075,7 +5094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5089,7 +5108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5103,7 +5122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5117,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5131,7 +5150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5145,7 +5164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -5159,7 +5178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -5173,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -5187,7 +5206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -5201,7 +5220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -5215,7 +5234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5229,7 +5248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5257,7 +5276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5271,7 +5290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -5285,7 +5304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -5299,7 +5318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -5313,7 +5332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -5327,7 +5346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5341,7 +5360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -5355,7 +5374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5369,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -5383,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5397,7 +5416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -5411,7 +5430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -5425,7 +5444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -5439,7 +5458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5453,7 +5472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5467,7 +5486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -5481,7 +5500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5495,7 +5514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -5509,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -5523,7 +5542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -5537,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5551,7 +5570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5565,7 +5584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -5579,7 +5598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -5593,7 +5612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5607,7 +5626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5621,7 +5640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5635,7 +5654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5649,7 +5668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5663,7 +5682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5677,7 +5696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -5691,7 +5710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -5705,7 +5724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5719,7 +5738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5733,7 +5752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -5747,7 +5766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -5761,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -5775,7 +5794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -5789,7 +5808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -5803,7 +5822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -5817,7 +5836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -5831,7 +5850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -5845,7 +5864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -5859,7 +5878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -5873,7 +5892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -5887,7 +5906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -5901,7 +5920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -5915,7 +5934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -5929,7 +5948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -5943,7 +5962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -5957,7 +5976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -5971,7 +5990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -5985,7 +6004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -5999,7 +6018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -6013,7 +6032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -6027,7 +6046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -6041,7 +6060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -6055,7 +6074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -6069,7 +6088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -6083,7 +6102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -6111,7 +6130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -6125,7 +6144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -6139,7 +6158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -6153,7 +6172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -6173,31 +6192,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45783</v>
       </c>
@@ -6208,10 +6227,10 @@
         <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45771</v>
       </c>
@@ -6222,10 +6241,10 @@
         <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45792</v>
       </c>
@@ -6236,10 +6255,10 @@
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45783</v>
       </c>
@@ -6250,10 +6269,10 @@
         <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45764</v>
       </c>
@@ -6264,10 +6283,10 @@
         <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45789</v>
       </c>
@@ -6278,10 +6297,10 @@
         <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45779</v>
       </c>
@@ -6292,10 +6311,10 @@
         <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45788</v>
       </c>
@@ -6306,10 +6325,10 @@
         <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45789</v>
       </c>
@@ -6320,10 +6339,10 @@
         <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45775</v>
       </c>
@@ -6334,10 +6353,10 @@
         <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45778</v>
       </c>
@@ -6348,10 +6367,10 @@
         <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45788</v>
       </c>
@@ -6362,7 +6381,7 @@
         <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6371,31 +6390,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="4" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -6403,13 +6422,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -6417,13 +6436,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -6431,13 +6450,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -6445,13 +6464,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -6459,13 +6478,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -6473,13 +6492,13 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -6487,13 +6506,13 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -6501,13 +6520,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -6515,13 +6534,13 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -6529,13 +6548,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -6543,13 +6562,13 @@
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6557,13 +6576,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -6571,13 +6590,13 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -6585,13 +6604,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -6599,13 +6618,13 @@
         <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -6613,13 +6632,13 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -6627,13 +6646,13 @@
         <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6641,13 +6660,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -6655,13 +6674,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -6669,13 +6688,13 @@
         <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -6683,13 +6702,13 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -6697,13 +6716,13 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -6711,13 +6730,13 @@
         <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -6725,13 +6744,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -6739,13 +6758,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -6753,13 +6772,13 @@
         <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -6767,13 +6786,13 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -6781,13 +6800,13 @@
         <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -6795,13 +6814,13 @@
         <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -6809,13 +6828,13 @@
         <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -6823,13 +6842,13 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -6837,13 +6856,13 @@
         <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -6851,13 +6870,13 @@
         <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -6865,13 +6884,13 @@
         <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -6879,13 +6898,13 @@
         <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -6893,13 +6912,13 @@
         <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D37" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6907,13 +6926,13 @@
         <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D38" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -6921,13 +6940,13 @@
         <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -6935,13 +6954,13 @@
         <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -6949,13 +6968,13 @@
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -6963,13 +6982,13 @@
         <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -6977,13 +6996,13 @@
         <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D43" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -6991,13 +7010,13 @@
         <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -7005,13 +7024,13 @@
         <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D45" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -7019,13 +7038,13 @@
         <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D46" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -7033,7 +7052,7 @@
         <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D47" s="1">
         <v>5</v>
@@ -7045,34 +7064,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -7089,7 +7108,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -7106,7 +7125,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
@@ -7123,7 +7142,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
@@ -7140,7 +7159,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -7157,7 +7176,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>139</v>
       </c>
@@ -7174,7 +7193,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -7191,7 +7210,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
@@ -7208,7 +7227,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
@@ -7225,7 +7244,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -7239,10 +7258,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -7259,7 +7278,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7273,10 +7292,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -7293,7 +7312,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -7310,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -7327,7 +7346,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -7344,7 +7363,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -7361,7 +7380,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -7378,7 +7397,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
@@ -7395,7 +7414,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -7412,7 +7431,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -7429,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -7446,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -7460,10 +7479,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -7480,7 +7499,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -7497,7 +7516,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -7514,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -7531,7 +7550,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>142</v>
       </c>
@@ -7548,7 +7567,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -7562,10 +7581,10 @@
         <v>17</v>
       </c>
       <c r="E30" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
@@ -7582,7 +7601,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>
@@ -7599,7 +7618,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
@@ -7616,7 +7635,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>142</v>
       </c>
@@ -7633,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -7650,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -7667,7 +7686,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -7684,7 +7703,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -7701,7 +7720,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
@@ -7718,7 +7737,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -7735,7 +7754,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
@@ -7752,7 +7771,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
@@ -7766,10 +7785,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="1">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>143</v>
       </c>
@@ -7783,10 +7802,10 @@
         <v>15</v>
       </c>
       <c r="E43" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
@@ -7803,7 +7822,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -7820,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -7843,42 +7862,42 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="1" max="6" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1">
         <v>68</v>
@@ -7887,18 +7906,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>45719.57340548172</v>
+        <v>45719.573405481722</v>
       </c>
       <c r="F2" s="3">
-        <v>45834.57340548172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>45834.573405481722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1">
         <v>64</v>
@@ -7913,12 +7932,12 @@
         <v>45843.57340549674</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1">
         <v>115</v>
@@ -7927,18 +7946,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>45726.57340551574</v>
+        <v>45726.573405515737</v>
       </c>
       <c r="F4" s="3">
-        <v>45824.57340551574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>45824.573405515737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1">
         <v>118</v>
@@ -7947,18 +7966,18 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="3">
-        <v>45710.57340553593</v>
+        <v>45710.573405535928</v>
       </c>
       <c r="F5" s="3">
-        <v>45854.57340553593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>45854.573405535928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1">
         <v>67</v>
@@ -7967,18 +7986,18 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="3">
-        <v>45696.57340555562</v>
+        <v>45696.573405555617</v>
       </c>
       <c r="F6" s="3">
-        <v>45867.57340555562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>45867.573405555617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1">
         <v>57</v>
@@ -7987,18 +8006,18 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="3">
-        <v>45735.57340557432</v>
+        <v>45735.573405574323</v>
       </c>
       <c r="F7" s="3">
-        <v>45832.57340557432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>45832.573405574323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1">
         <v>105</v>
@@ -8007,18 +8026,18 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="3">
-        <v>45744.57340559077</v>
+        <v>45744.573405590767</v>
       </c>
       <c r="F8" s="3">
-        <v>45885.57340559077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45885.573405590767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1">
         <v>75</v>
@@ -8027,18 +8046,18 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="3">
-        <v>45750.57340560823</v>
+        <v>45750.573405608229</v>
       </c>
       <c r="F9" s="3">
-        <v>45868.57340560823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>45868.573405608229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1">
         <v>123</v>
@@ -8047,10 +8066,10 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="3">
-        <v>45698.57340562443</v>
+        <v>45698.573405624433</v>
       </c>
       <c r="F10" s="3">
-        <v>45870.57340562443</v>
+        <v>45870.573405624433</v>
       </c>
     </row>
   </sheetData>
@@ -8059,54 +8078,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="1"/>
+    <col min="1" max="9" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>124</v>
@@ -8115,27 +8134,27 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>45711.5734065223</v>
+        <v>45711.573406522301</v>
       </c>
       <c r="G2" s="3">
-        <v>45752.5734065223</v>
+        <v>45752.573406522301</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>124</v>
@@ -8144,27 +8163,27 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>45742.5734065334</v>
+        <v>45742.573406533404</v>
       </c>
       <c r="G3" s="3">
-        <v>45844.5734065334</v>
+        <v>45844.573406533404</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -8173,27 +8192,27 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
-        <v>45685.57340655082</v>
+        <v>45685.573406550822</v>
       </c>
       <c r="G4" s="3">
-        <v>45786.57340655082</v>
+        <v>45786.573406550822</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>138</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>123</v>
@@ -8202,27 +8221,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="3">
-        <v>45712.57340656577</v>
+        <v>45712.573406565767</v>
       </c>
       <c r="G5" s="3">
-        <v>45783.57340656577</v>
+        <v>45783.573406565767</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>123</v>
@@ -8231,27 +8250,27 @@
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>45753.57340657918</v>
+        <v>45753.573406579177</v>
       </c>
       <c r="G6" s="3">
-        <v>45831.57340657918</v>
+        <v>45831.573406579177</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>123</v>
@@ -8260,27 +8279,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>45736.57340659424</v>
+        <v>45736.573406594238</v>
       </c>
       <c r="G7" s="3">
-        <v>45781.57340659424</v>
+        <v>45781.573406594238</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>124</v>
@@ -8289,10 +8308,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>45726.5734066085</v>
+        <v>45726.573406608499</v>
       </c>
       <c r="G8" s="3">
-        <v>45772.5734066085</v>
+        <v>45772.573406608499</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>136</v>
@@ -8301,15 +8320,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>124</v>
@@ -8318,27 +8337,27 @@
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>45746.57340662212</v>
+        <v>45746.573406622119</v>
       </c>
       <c r="G9" s="3">
-        <v>45851.57340662212</v>
+        <v>45851.573406622119</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>123</v>
@@ -8347,10 +8366,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="3">
-        <v>45701.57340663505</v>
+        <v>45701.573406635049</v>
       </c>
       <c r="G10" s="3">
-        <v>45754.57340663505</v>
+        <v>45754.573406635049</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>132</v>
@@ -8359,15 +8378,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>124</v>
@@ -8376,27 +8395,27 @@
         <v>18</v>
       </c>
       <c r="F11" s="3">
-        <v>45771.57340664741</v>
+        <v>45771.573406647411</v>
       </c>
       <c r="G11" s="3">
-        <v>45837.57340664741</v>
+        <v>45837.573406647411</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>123</v>
@@ -8405,27 +8424,27 @@
         <v>19</v>
       </c>
       <c r="F12" s="3">
-        <v>45754.57340666129</v>
+        <v>45754.573406661293</v>
       </c>
       <c r="G12" s="3">
-        <v>45816.57340666129</v>
+        <v>45816.573406661293</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>123</v>
@@ -8434,27 +8453,27 @@
         <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>45683.57340667673</v>
+        <v>45683.573406676733</v>
       </c>
       <c r="G13" s="3">
-        <v>45716.57340667673</v>
+        <v>45716.573406676733</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>123</v>
@@ -8463,10 +8482,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>45740.5734066888</v>
+        <v>45740.573406688804</v>
       </c>
       <c r="G14" s="3">
-        <v>45795.5734066888</v>
+        <v>45795.573406688804</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>137</v>
@@ -8475,15 +8494,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>123</v>
@@ -8492,27 +8511,27 @@
         <v>19</v>
       </c>
       <c r="F15" s="3">
-        <v>45722.57340670275</v>
+        <v>45722.573406702752</v>
       </c>
       <c r="G15" s="3">
-        <v>45779.57340670275</v>
+        <v>45779.573406702752</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>122</v>
@@ -8521,10 +8540,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="3">
-        <v>45718.57340671721</v>
+        <v>45718.573406717209</v>
       </c>
       <c r="G16" s="3">
-        <v>45820.57340671721</v>
+        <v>45820.573406717209</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>138</v>

--- a/enriched_jira_data_with_simulated.xlsx
+++ b/enriched_jira_data_with_simulated.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajit\Downloads\jira_resource_management_app (7)\Resmon7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FC301-BC1B-4BE5-BA84-F8F390996C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="Resource Costs" sheetId="7" r:id="rId7"/>
     <sheet name="Technical Debt" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -476,6 +470,12 @@
     <t>v5.0</t>
   </si>
   <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
     <t>PSSDP- 1130, PSSDP- 1154</t>
   </si>
   <si>
@@ -783,22 +783,16 @@
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Proj1</t>
-  </si>
-  <si>
-    <t>Proj2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,21 +864,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -922,7 +908,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -956,7 +942,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -991,10 +976,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1167,20 +1151,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.1796875" style="1"/>
-    <col min="23" max="23" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="9.1796875" style="1"/>
+    <col min="19" max="27" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1304,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="T2" s="1" t="b">
         <v>0</v>
@@ -1322,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1363,10 +1344,10 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T3" s="1" t="b">
         <v>0</v>
@@ -1381,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1425,13 +1406,13 @@
         <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="T4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="Z4" s="1">
         <v>3</v>
@@ -1440,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1484,10 +1465,10 @@
         <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="T5" s="1" t="b">
         <v>0</v>
@@ -1502,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1546,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="R6" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T6" s="1" t="b">
         <v>0</v>
@@ -1555,7 +1536,7 @@
         <v>124</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W6" s="3">
         <v>45861</v>
@@ -1573,7 +1554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1626,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>27</v>
@@ -1638,7 +1619,7 @@
         <v>123</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W7" s="3">
         <v>45746</v>
@@ -1656,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1709,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>64</v>
@@ -1721,7 +1702,7 @@
         <v>123</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W8" s="3">
         <v>45753</v>
@@ -1739,7 +1720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1792,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T9" s="1" t="b">
         <v>0</v>
@@ -1801,7 +1782,7 @@
         <v>123</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W9" s="3">
         <v>45745</v>
@@ -1819,7 +1800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1872,13 +1853,13 @@
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z10" s="1">
         <v>5</v>
@@ -1887,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1940,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="R11" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>54</v>
@@ -1952,7 +1933,7 @@
         <v>123</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="W11" s="3">
         <v>45746</v>
@@ -1961,7 +1942,7 @@
         <v>131</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z11" s="1">
         <v>2</v>
@@ -1970,7 +1951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2023,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T12" s="1" t="b">
         <v>0</v>
@@ -2038,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2091,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T13" s="1" t="b">
         <v>0</v>
@@ -2103,7 +2084,7 @@
         <v>123</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W13" s="3">
         <v>45765</v>
@@ -2121,7 +2102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2174,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>73</v>
@@ -2183,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="Z14" s="1">
         <v>2</v>
@@ -2192,7 +2173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2245,16 +2226,16 @@
         <v>5</v>
       </c>
       <c r="R15" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="Z15" s="1">
         <v>1</v>
@@ -2263,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2316,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="R16" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T16" s="1" t="b">
         <v>0</v>
@@ -2331,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2384,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T17" s="1" t="b">
         <v>0</v>
@@ -2393,7 +2374,7 @@
         <v>124</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W17" s="3">
         <v>45767</v>
@@ -2411,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2464,10 +2445,10 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T18" s="1" t="b">
         <v>0</v>
@@ -2482,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2535,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="R19" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>51</v>
@@ -2547,7 +2528,7 @@
         <v>124</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W19" s="3">
         <v>45759</v>
@@ -2556,7 +2537,7 @@
         <v>137</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="Z19" s="1">
         <v>3</v>
@@ -2565,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2618,16 +2599,16 @@
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Y20" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="Z20" s="1">
         <v>4</v>
@@ -2636,7 +2617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2689,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="R21" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>57</v>
@@ -2707,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2760,10 +2741,10 @@
         <v>5</v>
       </c>
       <c r="R22" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T22" s="1" t="b">
         <v>1</v>
@@ -2772,7 +2753,7 @@
         <v>123</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W22" s="3">
         <v>45780</v>
@@ -2790,7 +2771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2843,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="R23" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T23" s="1" t="b">
         <v>0</v>
@@ -2858,7 +2839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2911,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>65</v>
@@ -2929,7 +2910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2982,7 +2963,7 @@
         <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T25" s="1" t="b">
         <v>0</v>
@@ -2991,7 +2972,7 @@
         <v>123</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W25" s="3">
         <v>45775</v>
@@ -3009,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3062,10 +3043,10 @@
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T26" s="1" t="b">
         <v>1</v>
@@ -3080,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3133,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="R27" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T27" s="1" t="b">
         <v>0</v>
@@ -3142,7 +3123,7 @@
         <v>122</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W27" s="3">
         <v>45774</v>
@@ -3160,7 +3141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3213,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="R28" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
@@ -3231,7 +3212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3284,13 +3265,13 @@
         <v>5</v>
       </c>
       <c r="R29" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Y29" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="Z29" s="1">
         <v>7</v>
@@ -3299,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3352,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>47</v>
@@ -3370,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3423,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="R31" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T31" s="1" t="b">
         <v>0</v>
@@ -3438,7 +3419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3491,10 +3472,10 @@
         <v>5</v>
       </c>
       <c r="R32" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T32" s="1" t="b">
         <v>0</v>
@@ -3509,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3562,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="T33" s="1" t="b">
         <v>0</v>
@@ -3580,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3633,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="R34" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>36</v>
@@ -3651,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3704,7 +3685,7 @@
         <v>5</v>
       </c>
       <c r="R35" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T35" s="1" t="b">
         <v>0</v>
@@ -3713,7 +3694,7 @@
         <v>125</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W35" s="3">
         <v>45789</v>
@@ -3722,7 +3703,7 @@
         <v>132</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z35" s="1">
         <v>2</v>
@@ -3731,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3784,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="R36" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T36" s="1" t="b">
         <v>0</v>
@@ -3793,7 +3774,7 @@
         <v>122</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W36" s="3">
         <v>45788</v>
@@ -3811,7 +3792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3864,10 +3845,10 @@
         <v>3</v>
       </c>
       <c r="R37" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T37" s="1" t="b">
         <v>0</v>
@@ -3876,7 +3857,7 @@
         <v>123</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W37" s="3">
         <v>45787</v>
@@ -3894,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3947,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="R38" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T38" s="1" t="b">
         <v>0</v>
@@ -3956,7 +3937,7 @@
         <v>123</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W38" s="3">
         <v>45790</v>
@@ -3974,7 +3955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4027,13 +4008,13 @@
         <v>3</v>
       </c>
       <c r="R39" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="T39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="Z39" s="1">
         <v>2</v>
@@ -4042,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4095,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="R40" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="T40" s="1" t="b">
         <v>0</v>
@@ -4110,7 +4091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4163,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="R41" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="T41" s="1" t="b">
         <v>0</v>
@@ -4178,7 +4159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4231,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="R42" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="T42" s="1" t="b">
         <v>0</v>
@@ -4240,7 +4221,7 @@
         <v>124</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W42" s="3">
         <v>45783</v>
@@ -4258,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4311,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="R43" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="T43" s="1" t="b">
         <v>1</v>
@@ -4326,7 +4307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -4379,10 +4360,10 @@
         <v>5</v>
       </c>
       <c r="R44" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T44" s="1" t="b">
         <v>0</v>
@@ -4397,7 +4378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4450,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="R45" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>32</v>
@@ -4468,7 +4449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4521,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="R46" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="T46" s="1" t="b">
         <v>1</v>
@@ -4536,7 +4517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4589,7 +4570,7 @@
         <v>3</v>
       </c>
       <c r="R47" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="T47" s="1" t="b">
         <v>0</v>
@@ -4604,7 +4585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -4657,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T48" s="1" t="b">
         <v>0</v>
@@ -4681,48 +4662,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="6" width="9.1796875" style="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1">
         <v>0.83</v>
@@ -4731,12 +4712,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -4748,18 +4729,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1">
         <v>1.2</v>
@@ -4768,18 +4749,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1">
         <v>0.93</v>
@@ -4788,12 +4769,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -4805,18 +4786,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E7" s="1">
         <v>0.76</v>
@@ -4825,38 +4806,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="F8" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1">
         <v>1.06</v>
@@ -4865,18 +4846,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E10" s="1">
         <v>1.29</v>
@@ -4891,28 +4872,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4926,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4940,7 +4921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4954,7 +4935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4968,7 +4949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4982,7 +4963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4996,7 +4977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5010,7 +4991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5024,7 +5005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5038,7 +5019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5052,7 +5033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5080,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5094,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5108,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5122,7 +5103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5136,7 +5117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5150,7 +5131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5164,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -5178,7 +5159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -5192,7 +5173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -5206,7 +5187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -5220,7 +5201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -5234,7 +5215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5248,7 +5229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5262,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5276,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5290,7 +5271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -5304,7 +5285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -5318,7 +5299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -5332,7 +5313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -5346,7 +5327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5360,7 +5341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -5374,7 +5355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5388,7 +5369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -5402,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5416,7 +5397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -5430,7 +5411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -5444,7 +5425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -5458,7 +5439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5472,7 +5453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5486,7 +5467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -5500,7 +5481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5514,7 +5495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -5528,7 +5509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -5542,7 +5523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -5556,7 +5537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5570,7 +5551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5584,7 +5565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -5598,7 +5579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -5612,7 +5593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5626,7 +5607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5640,7 +5621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5654,7 +5635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5668,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5682,7 +5663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5696,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -5710,7 +5691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -5724,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5738,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5752,7 +5733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -5766,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -5780,7 +5761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -5794,7 +5775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -5808,7 +5789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -5822,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -5836,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -5850,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -5864,7 +5845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -5878,7 +5859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -5892,7 +5873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -5906,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -5920,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -5934,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -5948,7 +5929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -5962,7 +5943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -5976,7 +5957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -5990,7 +5971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -6004,7 +5985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -6018,7 +5999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -6032,7 +6013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -6046,7 +6027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -6060,7 +6041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -6074,7 +6055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -6088,7 +6069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -6102,7 +6083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -6116,7 +6097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -6130,7 +6111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -6144,7 +6125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -6158,7 +6139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -6172,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -6192,31 +6173,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>45783</v>
       </c>
@@ -6227,10 +6208,10 @@
         <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>45771</v>
       </c>
@@ -6241,10 +6222,10 @@
         <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>45792</v>
       </c>
@@ -6255,10 +6236,10 @@
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>45783</v>
       </c>
@@ -6269,10 +6250,10 @@
         <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>45764</v>
       </c>
@@ -6283,10 +6264,10 @@
         <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>45789</v>
       </c>
@@ -6297,10 +6278,10 @@
         <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>45779</v>
       </c>
@@ -6311,10 +6292,10 @@
         <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>45788</v>
       </c>
@@ -6325,10 +6306,10 @@
         <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>45789</v>
       </c>
@@ -6339,10 +6320,10 @@
         <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>45775</v>
       </c>
@@ -6353,10 +6334,10 @@
         <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>45778</v>
       </c>
@@ -6367,10 +6348,10 @@
         <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>45788</v>
       </c>
@@ -6381,7 +6362,7 @@
         <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6390,31 +6371,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="9.1796875" style="1"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -6422,13 +6403,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -6436,13 +6417,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -6450,13 +6431,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -6464,13 +6445,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -6478,13 +6459,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -6492,13 +6473,13 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -6506,13 +6487,13 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -6520,13 +6501,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -6534,13 +6515,13 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -6548,13 +6529,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -6562,13 +6543,13 @@
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6576,13 +6557,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -6590,13 +6571,13 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -6604,13 +6585,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -6618,13 +6599,13 @@
         <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -6632,13 +6613,13 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -6646,13 +6627,13 @@
         <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6660,13 +6641,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -6674,13 +6655,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -6688,13 +6669,13 @@
         <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -6702,13 +6683,13 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -6716,13 +6697,13 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -6730,13 +6711,13 @@
         <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -6744,13 +6725,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -6758,13 +6739,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -6772,13 +6753,13 @@
         <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -6786,13 +6767,13 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -6800,13 +6781,13 @@
         <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D29" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -6814,13 +6795,13 @@
         <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -6828,13 +6809,13 @@
         <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -6842,13 +6823,13 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -6856,13 +6837,13 @@
         <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -6870,13 +6851,13 @@
         <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -6884,13 +6865,13 @@
         <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -6898,13 +6879,13 @@
         <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -6912,13 +6893,13 @@
         <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D37" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6926,13 +6907,13 @@
         <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D38" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -6940,13 +6921,13 @@
         <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -6954,13 +6935,13 @@
         <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D40" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -6968,13 +6949,13 @@
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -6982,13 +6963,13 @@
         <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -6996,13 +6977,13 @@
         <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D43" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -7010,13 +6991,13 @@
         <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -7024,13 +7005,13 @@
         <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D45" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -7038,13 +7019,13 @@
         <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D46" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -7052,7 +7033,7 @@
         <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1">
         <v>5</v>
@@ -7064,34 +7045,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -7108,7 +7089,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -7125,7 +7106,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
@@ -7142,7 +7123,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
@@ -7159,7 +7140,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -7176,7 +7157,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>139</v>
       </c>
@@ -7193,7 +7174,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -7210,7 +7191,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
@@ -7227,7 +7208,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
@@ -7244,7 +7225,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -7258,10 +7239,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -7278,7 +7259,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7292,10 +7273,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -7312,7 +7293,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -7329,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -7346,7 +7327,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -7363,7 +7344,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -7380,7 +7361,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -7397,7 +7378,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
@@ -7414,7 +7395,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -7431,7 +7412,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -7448,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -7465,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -7479,10 +7460,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -7499,7 +7480,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -7516,7 +7497,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -7533,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -7550,7 +7531,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>142</v>
       </c>
@@ -7567,7 +7548,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -7581,10 +7562,10 @@
         <v>17</v>
       </c>
       <c r="E30" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
@@ -7601,7 +7582,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>
@@ -7618,7 +7599,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
@@ -7635,7 +7616,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>142</v>
       </c>
@@ -7652,7 +7633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -7669,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -7686,7 +7667,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -7703,7 +7684,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -7720,7 +7701,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
@@ -7737,7 +7718,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -7754,7 +7735,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
@@ -7771,7 +7752,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
@@ -7785,10 +7766,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="1">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>143</v>
       </c>
@@ -7802,10 +7783,10 @@
         <v>15</v>
       </c>
       <c r="E43" s="1">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
@@ -7822,7 +7803,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -7839,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -7862,42 +7843,42 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" style="1"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1">
         <v>68</v>
@@ -7906,18 +7887,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>45719.573405481722</v>
+        <v>45719.57340548172</v>
       </c>
       <c r="F2" s="3">
-        <v>45834.573405481722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45834.57340548172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1">
         <v>64</v>
@@ -7932,12 +7913,12 @@
         <v>45843.57340549674</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1">
         <v>115</v>
@@ -7946,18 +7927,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>45726.573405515737</v>
+        <v>45726.57340551574</v>
       </c>
       <c r="F4" s="3">
-        <v>45824.573405515737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45824.57340551574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1">
         <v>118</v>
@@ -7966,18 +7947,18 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="3">
-        <v>45710.573405535928</v>
+        <v>45710.57340553593</v>
       </c>
       <c r="F5" s="3">
-        <v>45854.573405535928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45854.57340553593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1">
         <v>67</v>
@@ -7986,18 +7967,18 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="3">
-        <v>45696.573405555617</v>
+        <v>45696.57340555562</v>
       </c>
       <c r="F6" s="3">
-        <v>45867.573405555617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45867.57340555562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1">
         <v>57</v>
@@ -8006,18 +7987,18 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="3">
-        <v>45735.573405574323</v>
+        <v>45735.57340557432</v>
       </c>
       <c r="F7" s="3">
-        <v>45832.573405574323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45832.57340557432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1">
         <v>105</v>
@@ -8026,18 +8007,18 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="3">
-        <v>45744.573405590767</v>
+        <v>45744.57340559077</v>
       </c>
       <c r="F8" s="3">
-        <v>45885.573405590767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45885.57340559077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C9" s="1">
         <v>75</v>
@@ -8046,18 +8027,18 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="3">
-        <v>45750.573405608229</v>
+        <v>45750.57340560823</v>
       </c>
       <c r="F9" s="3">
-        <v>45868.573405608229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45868.57340560823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1">
         <v>123</v>
@@ -8066,10 +8047,10 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="3">
-        <v>45698.573405624433</v>
+        <v>45698.57340562443</v>
       </c>
       <c r="F10" s="3">
-        <v>45870.573405624433</v>
+        <v>45870.57340562443</v>
       </c>
     </row>
   </sheetData>
@@ -8078,54 +8059,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="9.1796875" style="1"/>
+    <col min="1" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>124</v>
@@ -8134,27 +8115,27 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>45711.573406522301</v>
+        <v>45711.5734065223</v>
       </c>
       <c r="G2" s="3">
-        <v>45752.573406522301</v>
+        <v>45752.5734065223</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>124</v>
@@ -8163,27 +8144,27 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>45742.573406533404</v>
+        <v>45742.5734065334</v>
       </c>
       <c r="G3" s="3">
-        <v>45844.573406533404</v>
+        <v>45844.5734065334</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -8192,27 +8173,27 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
-        <v>45685.573406550822</v>
+        <v>45685.57340655082</v>
       </c>
       <c r="G4" s="3">
-        <v>45786.573406550822</v>
+        <v>45786.57340655082</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>138</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>123</v>
@@ -8221,27 +8202,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="3">
-        <v>45712.573406565767</v>
+        <v>45712.57340656577</v>
       </c>
       <c r="G5" s="3">
-        <v>45783.573406565767</v>
+        <v>45783.57340656577</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>123</v>
@@ -8250,27 +8231,27 @@
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>45753.573406579177</v>
+        <v>45753.57340657918</v>
       </c>
       <c r="G6" s="3">
-        <v>45831.573406579177</v>
+        <v>45831.57340657918</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>136</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>123</v>
@@ -8279,27 +8260,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>45736.573406594238</v>
+        <v>45736.57340659424</v>
       </c>
       <c r="G7" s="3">
-        <v>45781.573406594238</v>
+        <v>45781.57340659424</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>124</v>
@@ -8308,10 +8289,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>45726.573406608499</v>
+        <v>45726.5734066085</v>
       </c>
       <c r="G8" s="3">
-        <v>45772.573406608499</v>
+        <v>45772.5734066085</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>136</v>
@@ -8320,15 +8301,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>124</v>
@@ -8337,27 +8318,27 @@
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>45746.573406622119</v>
+        <v>45746.57340662212</v>
       </c>
       <c r="G9" s="3">
-        <v>45851.573406622119</v>
+        <v>45851.57340662212</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>123</v>
@@ -8366,10 +8347,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="3">
-        <v>45701.573406635049</v>
+        <v>45701.57340663505</v>
       </c>
       <c r="G10" s="3">
-        <v>45754.573406635049</v>
+        <v>45754.57340663505</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>132</v>
@@ -8378,15 +8359,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>124</v>
@@ -8395,27 +8376,27 @@
         <v>18</v>
       </c>
       <c r="F11" s="3">
-        <v>45771.573406647411</v>
+        <v>45771.57340664741</v>
       </c>
       <c r="G11" s="3">
-        <v>45837.573406647411</v>
+        <v>45837.57340664741</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>123</v>
@@ -8424,27 +8405,27 @@
         <v>19</v>
       </c>
       <c r="F12" s="3">
-        <v>45754.573406661293</v>
+        <v>45754.57340666129</v>
       </c>
       <c r="G12" s="3">
-        <v>45816.573406661293</v>
+        <v>45816.57340666129</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>123</v>
@@ -8453,27 +8434,27 @@
         <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>45683.573406676733</v>
+        <v>45683.57340667673</v>
       </c>
       <c r="G13" s="3">
-        <v>45716.573406676733</v>
+        <v>45716.57340667673</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>123</v>
@@ -8482,10 +8463,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>45740.573406688804</v>
+        <v>45740.5734066888</v>
       </c>
       <c r="G14" s="3">
-        <v>45795.573406688804</v>
+        <v>45795.5734066888</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>137</v>
@@ -8494,15 +8475,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>123</v>
@@ -8511,27 +8492,27 @@
         <v>19</v>
       </c>
       <c r="F15" s="3">
-        <v>45722.573406702752</v>
+        <v>45722.57340670275</v>
       </c>
       <c r="G15" s="3">
-        <v>45779.573406702752</v>
+        <v>45779.57340670275</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>122</v>
@@ -8540,10 +8521,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="3">
-        <v>45718.573406717209</v>
+        <v>45718.57340671721</v>
       </c>
       <c r="G16" s="3">
-        <v>45820.573406717209</v>
+        <v>45820.57340671721</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>138</v>
